--- a/documents/test/5_Testing_Abteilungsleiter_NW.xlsx
+++ b/documents/test/5_Testing_Abteilungsleiter_NW.xlsx
@@ -274,307 +274,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -998,16 +698,15 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2"/>
     <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -1581,50 +1280,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G6:G11">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Nein"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
